--- a/highcharts/kenya_cities/cities_table.xlsx
+++ b/highcharts/kenya_cities/cities_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="22940" windowHeight="14860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="22940" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,40 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -207,7 +240,75 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -219,119 +320,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -340,9 +328,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="336">
+  <cellStyleXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -683,22 +695,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="336">
+  <cellStyles count="360">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -867,6 +879,18 @@
     <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1034,6 +1058,18 @@
     <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1363,266 +1399,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="31" thickBot="1"/>
-    <row r="2" spans="2:5" ht="31" thickBot="1">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:7" ht="31" thickBot="1"/>
+    <row r="2" spans="2:7" ht="31" thickBot="1">
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="16"/>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>76828</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>139380</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>93369</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>218557</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F7" s="8">
+        <v>129934</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>88869</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>233231</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="16"/>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>409928</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="16"/>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8">
+        <v>106187</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>155896</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="16"/>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>104282</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="16"/>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>150041</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="16"/>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>107806</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="16"/>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8">
+        <v>83803</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>181966</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>307990</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="16"/>
+      <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8">
+        <v>73626</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="16"/>
+      <c r="C20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8">
         <v>238858</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="5" t="s">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="31" thickBot="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14">
-        <v>233231</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="F21" s="9">
         <v>139853</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14">
-        <v>129934</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14">
-        <v>104282</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14">
-        <v>88869</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>409928</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14">
-        <v>93369</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14">
-        <v>76828</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14">
-        <v>155896</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14">
-        <v>83803</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="14">
-        <v>218557</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14">
-        <v>150041</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="14">
-        <v>139380</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="14">
-        <v>307990</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="14">
-        <v>181966</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="14">
-        <v>107806</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="14">
-        <v>106187</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:5" ht="31" thickBot="1">
-      <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="15">
-        <v>73626</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="G21" s="6"/>
     </row>
   </sheetData>
+  <sortState ref="B3:D21">
+    <sortCondition ref="B3:B21"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1637,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1647,17 +1730,17 @@
     <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1669,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1">
-        <f>SUMIF(A$10:A$28,A2,C$10:C$28)/COUNTIF(A$10:A$28,A2)</f>
+        <f t="shared" ref="C2:C7" si="0">SUMIF(A$10:A$28,A2,C$10:C$28)/COUNTIF(A$10:A$28,A2)</f>
         <v>199254</v>
       </c>
       <c r="E2" t="str">
@@ -1685,11 +1768,11 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <f>SUMIF(A$10:A$28,A3,C$10:C$28)/COUNTIF(A$10:A$28,A3)</f>
+        <f t="shared" si="0"/>
         <v>193375</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E7" si="0">"{ name: """&amp;A3&amp;""", color: """&amp;B3&amp;"}, "</f>
+        <f t="shared" ref="E3:E7" si="1">"{ name: """&amp;A3&amp;""", color: """&amp;B3&amp;"}, "</f>
         <v xml:space="preserve">{ name: "Kisumu", color: "#d95f02}, </v>
       </c>
     </row>
@@ -1701,11 +1784,11 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <f>SUMIF(A$10:A$28,A4,C$10:C$28)/COUNTIF(A$10:A$28,A4)</f>
+        <f t="shared" si="0"/>
         <v>169326</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ name: "Machakos", color: "#7570b3}, </v>
       </c>
     </row>
@@ -1717,11 +1800,11 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <f>SUMIF(A$10:A$28,A5,C$10:C$28)/COUNTIF(A$10:A$28,A5)</f>
+        <f t="shared" si="0"/>
         <v>155837.83333333334</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ name: "Kiambu", color: "#e7298a}, </v>
       </c>
     </row>
@@ -1733,11 +1816,11 @@
         <v>27</v>
       </c>
       <c r="C6" s="1">
-        <f>SUMIF(A$10:A$28,A6,C$10:C$28)/COUNTIF(A$10:A$28,A6)</f>
+        <f t="shared" si="0"/>
         <v>119849.5</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ name: "Kitui", color: "#66a61e}, </v>
       </c>
     </row>
@@ -1749,30 +1832,30 @@
         <v>28</v>
       </c>
       <c r="C7" s="1">
-        <f>SUMIF(A$10:A$28,A7,C$10:C$28)/COUNTIF(A$10:A$28,A7)</f>
+        <f t="shared" si="0"/>
         <v>89906.5</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">{ name: "Trans-Nzoia", color: "#e6ab02}, </v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -1785,7 +1868,7 @@
         <v>307990</v>
       </c>
       <c r="E10" t="str">
-        <f>"{ name: """&amp;B10&amp;""", color: """&amp;VLOOKUP(A10,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C10&amp;"}, "</f>
+        <f t="shared" ref="E10:E28" si="2">"{ name: """&amp;B10&amp;""", color: """&amp;VLOOKUP(A10,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C10&amp;"}, "</f>
         <v xml:space="preserve">{ name: "Nakuru", color: "#1b9e77", y: 307990}, </v>
       </c>
       <c r="G10"/>
@@ -1801,7 +1884,7 @@
         <v>181966</v>
       </c>
       <c r="E11" t="str">
-        <f>"{ name: """&amp;B11&amp;""", color: """&amp;VLOOKUP(A11,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C11&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Naivasha", color: "#1b9e77", y: 181966}, </v>
       </c>
       <c r="G11"/>
@@ -1817,7 +1900,7 @@
         <v>107806</v>
       </c>
       <c r="E12" t="str">
-        <f>"{ name: """&amp;B12&amp;""", color: """&amp;VLOOKUP(A12,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C12&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Molo", color: "#1b9e77", y: 107806}, </v>
       </c>
       <c r="G12"/>
@@ -1833,7 +1916,7 @@
         <v>409928</v>
       </c>
       <c r="E13" t="str">
-        <f>"{ name: """&amp;B13&amp;""", color: """&amp;VLOOKUP(A13,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C13&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Kisumu", color: "#d95f02", y: 409928}, </v>
       </c>
       <c r="G13"/>
@@ -1849,7 +1932,7 @@
         <v>93369</v>
       </c>
       <c r="E14" t="str">
-        <f>"{ name: """&amp;B14&amp;""", color: """&amp;VLOOKUP(A14,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C14&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Awasi", color: "#d95f02", y: 93369}, </v>
       </c>
       <c r="G14"/>
@@ -1865,7 +1948,7 @@
         <v>76828</v>
       </c>
       <c r="E15" t="str">
-        <f>"{ name: """&amp;B15&amp;""", color: """&amp;VLOOKUP(A15,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C15&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Ahero", color: "#d95f02", y: 76828}, </v>
       </c>
       <c r="G15"/>
@@ -1881,7 +1964,7 @@
         <v>218557</v>
       </c>
       <c r="E16" t="str">
-        <f>"{ name: """&amp;B16&amp;""", color: """&amp;VLOOKUP(A16,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C16&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Kangundo-Tala", color: "#7570b3", y: 218557}, </v>
       </c>
       <c r="G16"/>
@@ -1897,7 +1980,7 @@
         <v>150041</v>
       </c>
       <c r="E17" t="str">
-        <f>"{ name: """&amp;B17&amp;""", color: """&amp;VLOOKUP(A17,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C17&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Machakos", color: "#7570b3", y: 150041}, </v>
       </c>
       <c r="G17"/>
@@ -1913,7 +1996,7 @@
         <v>139380</v>
       </c>
       <c r="E18" t="str">
-        <f>"{ name: """&amp;B18&amp;""", color: """&amp;VLOOKUP(A18,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C18&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Athi River", color: "#7570b3", y: 139380}, </v>
       </c>
       <c r="G18"/>
@@ -1929,7 +2012,7 @@
         <v>238858</v>
       </c>
       <c r="E19" t="str">
-        <f>"{ name: """&amp;B19&amp;""", color: """&amp;VLOOKUP(A19,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C19&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Ruiru", color: "#e7298a", y: 238858}, </v>
       </c>
       <c r="G19"/>
@@ -1945,7 +2028,7 @@
         <v>233231</v>
       </c>
       <c r="E20" t="str">
-        <f>"{ name: """&amp;B20&amp;""", color: """&amp;VLOOKUP(A20,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C20&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Kikuyu", color: "#e7298a", y: 233231}, </v>
       </c>
       <c r="G20"/>
@@ -1961,7 +2044,7 @@
         <v>139853</v>
       </c>
       <c r="E21" t="str">
-        <f>"{ name: """&amp;B21&amp;""", color: """&amp;VLOOKUP(A21,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C21&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Thika", color: "#e7298a", y: 139853}, </v>
       </c>
       <c r="G21"/>
@@ -1977,7 +2060,7 @@
         <v>129934</v>
       </c>
       <c r="E22" t="str">
-        <f>"{ name: """&amp;B22&amp;""", color: """&amp;VLOOKUP(A22,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C22&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Karuri", color: "#e7298a", y: 129934}, </v>
       </c>
       <c r="G22"/>
@@ -1993,7 +2076,7 @@
         <v>104282</v>
       </c>
       <c r="E23" t="str">
-        <f>"{ name: """&amp;B23&amp;""", color: """&amp;VLOOKUP(A23,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C23&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Limuru", color: "#e7298a", y: 104282}, </v>
       </c>
       <c r="G23"/>
@@ -2009,7 +2092,7 @@
         <v>88869</v>
       </c>
       <c r="E24" t="str">
-        <f>"{ name: """&amp;B24&amp;""", color: """&amp;VLOOKUP(A24,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C24&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Kiambu", color: "#e7298a", y: 88869}, </v>
       </c>
       <c r="G24"/>
@@ -2025,7 +2108,7 @@
         <v>155896</v>
       </c>
       <c r="E25" t="str">
-        <f>"{ name: """&amp;B25&amp;""", color: """&amp;VLOOKUP(A25,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C25&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Kitui", color: "#66a61e", y: 155896}, </v>
       </c>
       <c r="G25"/>
@@ -2041,7 +2124,7 @@
         <v>83803</v>
       </c>
       <c r="E26" t="str">
-        <f>"{ name: """&amp;B26&amp;""", color: """&amp;VLOOKUP(A26,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C26&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Mwingi", color: "#66a61e", y: 83803}, </v>
       </c>
       <c r="G26"/>
@@ -2057,7 +2140,7 @@
         <v>106187</v>
       </c>
       <c r="E27" t="str">
-        <f>"{ name: """&amp;B27&amp;""", color: """&amp;VLOOKUP(A27,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C27&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Kitale", color: "#e6ab02", y: 106187}, </v>
       </c>
       <c r="G27"/>
@@ -2073,7 +2156,7 @@
         <v>73626</v>
       </c>
       <c r="E28" t="str">
-        <f>"{ name: """&amp;B28&amp;""", color: """&amp;VLOOKUP(A28,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C28&amp;"}, "</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">{ name: "Nandi Hills", color: "#e6ab02", y: 73626}, </v>
       </c>
       <c r="G28"/>

--- a/highcharts/kenya_cities/cities_table.xlsx
+++ b/highcharts/kenya_cities/cities_table.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ns/Dropbox (Personal)/Projects/teaching/data-viz-nairobi/highcharts/kenya_cities/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="22940" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="53800" yWindow="3440" windowWidth="22940" windowHeight="14860" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId2"/>
+    <sheet name="data_US" sheetId="3" r:id="rId3"/>
+    <sheet name="table_US" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="64">
   <si>
     <t>Population</t>
   </si>
@@ -116,6 +124,102 @@
   </si>
   <si>
     <t>JSON data</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Shreveport</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Peoria</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Broken Arrow</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -328,7 +432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="360">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -689,8 +793,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -709,8 +816,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="360">
+  <cellStyles count="363">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -891,6 +1000,9 @@
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1074,7 +1186,1042 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.866257328224848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.321796828379447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.178539950062139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.364486676802012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.254935676982006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.918833832676267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.753974567822508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.352432565208352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.149000844103631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.979557151571022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.907155198861152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66304917454387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.181640322172914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882009068949554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.479452742574987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0552823885492372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.210092634896003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.643528634604347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$9:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.646474230900843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0339793337403113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0932040587846939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.321595193928601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.808652124149152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.137803026271563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$15:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.194784862764154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51577515885789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316278204712233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.360163692807073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.308802823420441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.241502549755152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89949480215858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.554052269904535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.554948264590312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.536326755795109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.778375082561133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.112662452460438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2100457088"/>
+        <c:axId val="-2100475216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2100457088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2100475216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2100475216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2100457088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,13 +2546,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C7" si="0">SUMIF(A$10:A$28,A2,C$10:C$28)/COUNTIF(A$10:A$28,A2)</f>
+        <v>199254</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"{ name: """&amp;A2&amp;""", color: """&amp;B2&amp;"}, "</f>
+        <v xml:space="preserve">{ name: "Nakuru", color: "#1b9e77}, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>193375</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="1">"{ name: """&amp;A3&amp;""", color: """&amp;B3&amp;"}, "</f>
+        <v xml:space="preserve">{ name: "Kisumu", color: "#d95f02}, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>169326</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Machakos", color: "#7570b3}, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>155837.83333333334</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Kiambu", color: "#e7298a}, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>119849.5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Kitui", color: "#66a61e}, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>89906.5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Trans-Nzoia", color: "#e6ab02}, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>307990</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E28" si="2">"{ name: """&amp;B10&amp;""", color: """&amp;VLOOKUP(A10,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C10&amp;"}, "</f>
+        <v xml:space="preserve">{ name: "Nakuru", color: "#1b9e77", y: 307990}, </v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>181966</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Naivasha", color: "#1b9e77", y: 181966}, </v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>107806</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Molo", color: "#1b9e77", y: 107806}, </v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>409928</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Kisumu", color: "#d95f02", y: 409928}, </v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>93369</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Awasi", color: "#d95f02", y: 93369}, </v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>76828</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Ahero", color: "#d95f02", y: 76828}, </v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>218557</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Kangundo-Tala", color: "#7570b3", y: 218557}, </v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150041</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Machakos", color: "#7570b3", y: 150041}, </v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>139380</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Athi River", color: "#7570b3", y: 139380}, </v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>238858</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Ruiru", color: "#e7298a", y: 238858}, </v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>233231</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Kikuyu", color: "#e7298a", y: 233231}, </v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>139853</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Thika", color: "#e7298a", y: 139853}, </v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>129934</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Karuri", color: "#e7298a", y: 129934}, </v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>104282</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Limuru", color: "#e7298a", y: 104282}, </v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88869</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Kiambu", color: "#e7298a", y: 88869}, </v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>155896</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Kitui", color: "#66a61e", y: 155896}, </v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>83803</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Mwingi", color: "#66a61e", y: 83803}, </v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>106187</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Kitale", color: "#e6ab02", y: 106187}, </v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>73626</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">{ name: "Nandi Hills", color: "#e6ab02", y: 73626}, </v>
+      </c>
+      <c r="G28"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C7">
+    <sortCondition descending="1" ref="C27:C32"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="2.6640625" style="2" customWidth="1"/>
@@ -1421,8 +3024,8 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="31" thickBot="1"/>
-    <row r="2" spans="2:7" ht="31" thickBot="1">
+    <row r="1" spans="2:7" ht="32" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15"/>
       <c r="C2" s="12" t="s">
         <v>21</v>
@@ -1436,7 +3039,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
       <c r="C3" s="13" t="s">
         <v>19</v>
@@ -1450,7 +3053,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>22</v>
@@ -1464,7 +3067,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
       <c r="C5" s="13" t="s">
         <v>17</v>
@@ -1478,7 +3081,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="16"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
@@ -1492,7 +3095,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="16"/>
       <c r="C7" s="13" t="s">
         <v>12</v>
@@ -1506,7 +3109,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -1520,7 +3123,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="13" t="s">
         <v>6</v>
@@ -1534,7 +3137,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="13" t="s">
         <v>2</v>
@@ -1548,7 +3151,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
       <c r="C11" s="13" t="s">
         <v>14</v>
@@ -1562,7 +3165,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
       <c r="C12" s="13" t="s">
         <v>10</v>
@@ -1576,7 +3179,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
       <c r="C13" s="13" t="s">
         <v>16</v>
@@ -1590,7 +3193,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
       <c r="C14" s="13" t="s">
         <v>8</v>
@@ -1604,7 +3207,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -1618,7 +3221,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="13" t="s">
         <v>18</v>
@@ -1632,7 +3235,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="13" t="s">
         <v>9</v>
@@ -1646,7 +3249,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="13" t="s">
         <v>3</v>
@@ -1660,7 +3263,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="13" t="s">
         <v>20</v>
@@ -1674,7 +3277,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
       <c r="C20" s="13" t="s">
         <v>4</v>
@@ -1688,7 +3291,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="31" thickBot="1">
+    <row r="21" spans="2:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="14" t="s">
         <v>11</v>
@@ -1708,31 +3311,27 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>29</v>
@@ -1740,112 +3339,98 @@
       <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="D1" s="10"/>
       <c r="E1" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C7" si="0">SUMIF(A$10:A$28,A2,C$10:C$28)/COUNTIF(A$10:A$28,A2)</f>
-        <v>199254</v>
+        <f>SUMIF(A$10:A$28,A2,C$10:C$28)/COUNTIF(A$10:A$28,A2)</f>
+        <v>125266.25</v>
       </c>
       <c r="E2" t="str">
-        <f>"{ name: """&amp;A2&amp;""", color: """&amp;B2&amp;"}, "</f>
-        <v xml:space="preserve">{ name: "Nakuru", color: "#1b9e77}, </v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <f>"{ name: """&amp;A2&amp;""", color: """&amp;B2&amp;""", x: 10, y: 100 }, "</f>
+        <v xml:space="preserve">{ name: "Alabama", color: "#1b9e77", x: 10, y: 100 }, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>193375</v>
+        <f>SUMIF(A$10:A$28,A3,C$10:C$28)/COUNTIF(A$10:A$28,A3)</f>
+        <v>156397.6</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E7" si="1">"{ name: """&amp;A3&amp;""", color: """&amp;B3&amp;"}, "</f>
-        <v xml:space="preserve">{ name: "Kisumu", color: "#d95f02}, </v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f t="shared" ref="E3:E6" si="0">"{ name: """&amp;A3&amp;""", color: """&amp;B3&amp;""", x: 10, y: 100 }, "</f>
+        <v xml:space="preserve">{ name: "Arizona", color: "#d95f02", x: 10, y: 100 }, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1">
+        <f>SUMIF(A$10:A$28,A4,C$10:C$28)/COUNTIF(A$10:A$28,A4)</f>
+        <v>167601.5</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>169326</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ name: "Machakos", color: "#7570b3}, </v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v xml:space="preserve">{ name: "Louisiana", color: "#7570b3", x: 10, y: 100 }, </v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1">
+        <f>SUMIF(A$10:A$28,A5,C$10:C$28)/COUNTIF(A$10:A$28,A5)</f>
+        <v>183915.33333333334</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>155837.83333333334</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ name: "Kiambu", color: "#e7298a}, </v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v xml:space="preserve">{ name: "Oklahoma", color: "#e7298a", x: 10, y: 100 }, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1">
+        <f>SUMIF(A$10:A$28,A6,C$10:C$28)/COUNTIF(A$10:A$28,A6)</f>
+        <v>259209.66666666666</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>119849.5</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ name: "Kitui", color: "#66a61e}, </v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>89906.5</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">{ name: "Trans-Nzoia", color: "#e6ab02}, </v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v xml:space="preserve">{ name: "Oregon", color: "#66a61e", x: 10, y: 100 }, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>0</v>
@@ -1855,322 +3440,857 @@
         <v>31</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>307990</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C10" s="18">
+        <v>220927</v>
+      </c>
+      <c r="D10" s="18"/>
       <c r="E10" t="str">
-        <f t="shared" ref="E10:E28" si="2">"{ name: """&amp;B10&amp;""", color: """&amp;VLOOKUP(A10,$A$2:$B$7,2,FALSE)&amp;""", y: "&amp;C10&amp;"}, "</f>
-        <v xml:space="preserve">{ name: "Nakuru", color: "#1b9e77", y: 307990}, </v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7">
+        <f>"{ name: """&amp;B10&amp;""", color: """&amp;VLOOKUP(A10,$A$2:$B$6,2,FALSE)&amp;""", y: "&amp;C10&amp;"}, "</f>
+        <v xml:space="preserve">{ name: "Birmingham", color: "#1b9e77", y: 220927}, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>181966</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C11" s="18">
+        <v>126250</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Naivasha", color: "#1b9e77", y: 181966}, </v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7">
+        <f t="shared" ref="E11:E28" si="1">"{ name: """&amp;B11&amp;""", color: """&amp;VLOOKUP(A11,$A$2:$B$6,2,FALSE)&amp;""", y: "&amp;C11&amp;"}, "</f>
+        <v xml:space="preserve">{ name: "Montgomery", color: "#1b9e77", y: 126250}, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>107806</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C12" s="18">
+        <v>98147</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Molo", color: "#1b9e77", y: 107806}, </v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Mobile", color: "#1b9e77", y: 98147}, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>409928</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C13" s="18">
+        <v>55741</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Kisumu", color: "#d95f02", y: 409928}, </v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Huntsville", color: "#1b9e77", y: 55741}, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>93369</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C14" s="18">
+        <v>245868</v>
+      </c>
+      <c r="D14" s="18"/>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Awasi", color: "#d95f02", y: 93369}, </v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Glendale", color: "#d95f02", y: 245868}, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>76828</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="18">
+        <v>134335</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Ahero", color: "#d95f02", y: 76828}, </v>
-      </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Scottsdale", color: "#d95f02", y: 134335}, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>218557</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C16" s="18">
+        <v>143369</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Kangundo-Tala", color: "#7570b3", y: 218557}, </v>
-      </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Tempe", color: "#d95f02", y: 143369}, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>150041</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C17" s="18">
+        <v>167868</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Machakos", color: "#7570b3", y: 150041}, </v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Peoria", color: "#d95f02", y: 167868}, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>139380</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C18" s="18">
+        <v>90548</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Athi River", color: "#7570b3", y: 139380}, </v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Surprise", color: "#d95f02", y: 90548}, </v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>238858</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C19" s="18">
+        <v>322172</v>
+      </c>
+      <c r="D19" s="18"/>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Ruiru", color: "#e7298a", y: 238858}, </v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "New Orleans", color: "#7570b3", y: 322172}, </v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>233231</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C20" s="18">
+        <v>191741</v>
+      </c>
+      <c r="D20" s="18"/>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Kikuyu", color: "#e7298a", y: 233231}, </v>
-      </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Baton Rouge", color: "#7570b3", y: 191741}, </v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>139853</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C21" s="18">
+        <v>68756</v>
+      </c>
+      <c r="D21" s="18"/>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Thika", color: "#e7298a", y: 139853}, </v>
-      </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Shreveport", color: "#7570b3", y: 68756}, </v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <v>129934</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C22" s="18">
+        <v>87737</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Karuri", color: "#e7298a", y: 129934}, </v>
-      </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Lafayette", color: "#7570b3", y: 87737}, </v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1">
-        <v>104282</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C23" s="18">
+        <v>392138</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Limuru", color: "#e7298a", y: 104282}, </v>
-      </c>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Tulsa", color: "#e7298a", y: 392138}, </v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>88869</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C24" s="18">
+        <v>101590</v>
+      </c>
+      <c r="D24" s="18"/>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Kiambu", color: "#e7298a", y: 88869}, </v>
-      </c>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Norman", color: "#e7298a", y: 101590}, </v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>155896</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C25" s="18">
+        <v>58018</v>
+      </c>
+      <c r="D25" s="18"/>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Kitui", color: "#66a61e", y: 155896}, </v>
-      </c>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Broken Arrow", color: "#e7298a", y: 58018}, </v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1">
-        <v>83803</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C26" s="18">
+        <v>514108</v>
+      </c>
+      <c r="D26" s="18"/>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Mwingi", color: "#66a61e", y: 83803}, </v>
-      </c>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Portland", color: "#66a61e", y: 514108}, </v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1">
-        <v>106187</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C27" s="18">
+        <v>147631</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Kitale", color: "#e6ab02", y: 106187}, </v>
-      </c>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Salem", color: "#66a61e", y: 147631}, </v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1">
-        <v>73626</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C28" s="18">
+        <v>115890</v>
+      </c>
+      <c r="D28" s="18"/>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">{ name: "Nandi Hills", color: "#e6ab02", y: 73626}, </v>
-      </c>
-      <c r="G28"/>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{ name: "Eugene", color: "#66a61e", y: 115890}, </v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C7">
-    <sortCondition descending="1" ref="C27:C32"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J21"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="32" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="16"/>
+      <c r="C3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8">
+        <v>191740.7052926184</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="8">
+        <v>220927.44687691651</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8">
+        <v>58017.565116846279</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8">
+        <v>115890.38636936237</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8">
+        <v>245867.68313794417</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55741.148078063416</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8">
+        <v>87736.661142570229</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+      <c r="C10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8">
+        <v>98147.479787792734</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8">
+        <v>126250.39285769385</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8">
+        <v>322172.06483135634</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="16"/>
+      <c r="C13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="8">
+        <v>101590.43565372941</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="16"/>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8">
+        <v>167868.06436526022</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="16"/>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8">
+        <v>514107.80109693395</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="16"/>
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
+        <v>147630.53414740824</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8">
+        <v>134334.5576257327</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="8">
+        <v>68756.327352279448</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="16"/>
+      <c r="C19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8">
+        <v>90548.460783390939</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="16"/>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8">
+        <v>143369.49863820124</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="17"/>
+      <c r="C21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="9">
+        <v>392138.2810459453</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:J21">
+    <sortCondition ref="C3:C21"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="19">
+        <v>0.8662573282248478</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.75397456782250794</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="19">
+        <v>0.32179682837944668</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.35243256520835253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>0.17853995006213885</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.14900084410363079</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="19">
+        <v>0.36448667680201186</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.97955715157102208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>0.25493567698200614</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.90715519886115181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="19">
+        <v>0.91883383267626739</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.6630491745438698</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>0.1816403221729137</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.64647423090084355</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>0.88200906894955422</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3.3979333740311257E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>0.47945274257498682</v>
+      </c>
+      <c r="C11" s="19">
+        <v>9.3204058784693955E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
+        <v>5.5282388549237171E-2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.3215951939286007</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="19">
+        <v>0.21009263489600305</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.80865212414915233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
+        <v>0.64352863460434728</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.13780302627156338</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
+        <v>0.19478486276415397</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.89949480215858024</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
+        <v>0.51577515885789016</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.55405226990453482</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>0.31627820471223278</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.55494826459031243</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="19">
+        <v>0.36016369280707283</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.53632675579510891</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="19">
+        <v>0.30880282342044063</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.77837508256113297</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
+        <v>0.2415025497551524</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.1126624524604376</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>